--- a/output/clickme.xlsx
+++ b/output/clickme.xlsx
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G4" s="39" t="n">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="I4" s="14" t="n">
         <v>2</v>
@@ -3031,13 +3031,38 @@
       <c r="V8" s="60" t="n"/>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PANEL ASSY-REAR DOOR,RH</t>
+        </is>
+      </c>
       <c r="B9" s="25" t="n"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>77004-25050</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E9" s="54" t="n"/>
-      <c r="H9" s="100">
-        <f>IF(Table1[[#This Row],[BMW Disc Code]]="","",IF(OR('Cover Sheet'!$G$7="BMW",'Cover Sheet'!$G$7="Mini"),(Table1[[#This Row],[Retail]]-SUM(VLOOKUP(Table1[[#This Row],[BMW Disc Code]],BMWdisc[#All],2,FALSE)*Table1[[#This Row],[Retail]])),""))</f>
-        <v/>
-      </c>
-      <c r="I9" s="54" t="n"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>$562.50</t>
+        </is>
+      </c>
+      <c r="H9" s="100" t="inlineStr">
+        <is>
+          <t>$450.00</t>
+        </is>
+      </c>
+      <c r="I9" s="54" t="inlineStr">
+        <is>
+          <t>7-9wks</t>
+        </is>
+      </c>
       <c r="J9" s="100">
         <f>IFERROR(IF(ISBLANK(F9),"",IF(ISBLANK(D9),F9,D9*F9)),"")</f>
         <v/>
@@ -3109,7 +3134,11 @@
           <t>$27.60</t>
         </is>
       </c>
-      <c r="I10" s="54" t="n"/>
+      <c r="I10" s="54" t="inlineStr">
+        <is>
+          <t>3-4wks</t>
+        </is>
+      </c>
       <c r="J10" s="100">
         <f>IFERROR(IF(ISBLANK(F10),"",IF(ISBLANK(D10),F10,D10*F10)),"")</f>
         <v/>
@@ -3154,13 +3183,38 @@
       <c r="V10" s="60" t="n"/>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BLACK TAPE-RR DR FRAMEUPR,RH</t>
+        </is>
+      </c>
       <c r="B11" s="25" t="n"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86392-28000</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E11" s="54" t="n"/>
-      <c r="H11" s="100">
-        <f>IF(Table1[[#This Row],[BMW Disc Code]]="","",IF(OR('Cover Sheet'!$G$7="BMW",'Cover Sheet'!$G$7="Mini"),(Table1[[#This Row],[Retail]]-SUM(VLOOKUP(Table1[[#This Row],[BMW Disc Code]],BMWdisc[#All],2,FALSE)*Table1[[#This Row],[Retail]])),""))</f>
-        <v/>
-      </c>
-      <c r="I11" s="54" t="n"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>$35.25</t>
+        </is>
+      </c>
+      <c r="H11" s="100" t="inlineStr">
+        <is>
+          <t>$28.20</t>
+        </is>
+      </c>
+      <c r="I11" s="54" t="inlineStr">
+        <is>
+          <t>3-4wks</t>
+        </is>
+      </c>
       <c r="J11" s="100">
         <f>IFERROR(IF(ISBLANK(F11),"",IF(ISBLANK(D11),F11,D11*F11)),"")</f>
         <v/>
@@ -3205,13 +3259,38 @@
       <c r="V11" s="60" t="n"/>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BLACK TAPE-RR DR FRAMERR,RH</t>
+        </is>
+      </c>
       <c r="B12" s="25" t="n"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86393-25000</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E12" s="54" t="n"/>
-      <c r="H12" s="100">
-        <f>IF(Table1[[#This Row],[BMW Disc Code]]="","",IF(OR('Cover Sheet'!$G$7="BMW",'Cover Sheet'!$G$7="Mini"),(Table1[[#This Row],[Retail]]-SUM(VLOOKUP(Table1[[#This Row],[BMW Disc Code]],BMWdisc[#All],2,FALSE)*Table1[[#This Row],[Retail]])),""))</f>
-        <v/>
-      </c>
-      <c r="I12" s="54" t="n"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>$11.25</t>
+        </is>
+      </c>
+      <c r="H12" s="100" t="inlineStr">
+        <is>
+          <t>$9.00</t>
+        </is>
+      </c>
+      <c r="I12" s="54" t="inlineStr">
+        <is>
+          <t>34wks</t>
+        </is>
+      </c>
       <c r="J12" s="100">
         <f>IFERROR(IF(ISBLANK(F12),"",IF(ISBLANK(D12),F12,D12*F12)),"")</f>
         <v/>
@@ -3256,13 +3335,36 @@
       <c r="V12" s="60" t="n"/>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GARNISH ASSY-RR DR SIDE RH</t>
+        </is>
+      </c>
       <c r="B13" s="25" t="n"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>87732-28000</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E13" s="54" t="n"/>
-      <c r="H13" s="100">
-        <f>IF(Table1[[#This Row],[BMW Disc Code]]="","",IF(OR('Cover Sheet'!$G$7="BMW",'Cover Sheet'!$G$7="Mini"),(Table1[[#This Row],[Retail]]-SUM(VLOOKUP(Table1[[#This Row],[BMW Disc Code]],BMWdisc[#All],2,FALSE)*Table1[[#This Row],[Retail]])),""))</f>
-        <v/>
-      </c>
-      <c r="I13" s="54" t="n"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>$62.25</t>
+        </is>
+      </c>
+      <c r="H13" s="100" t="inlineStr">
+        <is>
+          <t>$49.80</t>
+        </is>
+      </c>
+      <c r="I13" s="54" t="n">
+        <v>3</v>
+      </c>
       <c r="J13" s="100">
         <f>IFERROR(IF(ISBLANK(F13),"",IF(ISBLANK(D13),F13,D13*F13)),"")</f>
         <v/>
@@ -3307,13 +3409,36 @@
       <c r="V13" s="60" t="n"/>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Clip White order 10</t>
+        </is>
+      </c>
       <c r="B14" s="25" t="n"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 87756-2E000</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="E14" s="54" t="n"/>
-      <c r="H14" s="100">
-        <f>IF(Table1[[#This Row],[BMW Disc Code]]="","",IF(OR('Cover Sheet'!$G$7="BMW",'Cover Sheet'!$G$7="Mini"),(Table1[[#This Row],[Retail]]-SUM(VLOOKUP(Table1[[#This Row],[BMW Disc Code]],BMWdisc[#All],2,FALSE)*Table1[[#This Row],[Retail]])),""))</f>
-        <v/>
-      </c>
-      <c r="I14" s="54" t="n"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>$3.75</t>
+        </is>
+      </c>
+      <c r="H14" s="100" t="inlineStr">
+        <is>
+          <t>$3.00</t>
+        </is>
+      </c>
+      <c r="I14" s="54" t="n">
+        <v>427</v>
+      </c>
       <c r="J14" s="100">
         <f>IFERROR(IF(ISBLANK(F14),"",IF(ISBLANK(D14),F14,D14*F14)),"")</f>
         <v/>
@@ -3358,13 +3483,36 @@
       <c r="V14" s="60" t="n"/>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CLIP-SIDE SILL MOULDING MTG</t>
+        </is>
+      </c>
       <c r="B15" s="25" t="n"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 87758-23000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="E15" s="54" t="n"/>
-      <c r="H15" s="100">
-        <f>IF(Table1[[#This Row],[BMW Disc Code]]="","",IF(OR('Cover Sheet'!$G$7="BMW",'Cover Sheet'!$G$7="Mini"),(Table1[[#This Row],[Retail]]-SUM(VLOOKUP(Table1[[#This Row],[BMW Disc Code]],BMWdisc[#All],2,FALSE)*Table1[[#This Row],[Retail]])),""))</f>
-        <v/>
-      </c>
-      <c r="I15" s="54" t="n"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>$4.50</t>
+        </is>
+      </c>
+      <c r="H15" s="100" t="inlineStr">
+        <is>
+          <t>$3.60</t>
+        </is>
+      </c>
+      <c r="I15" s="54" t="n">
+        <v>62</v>
+      </c>
       <c r="J15" s="100">
         <f>IFERROR(IF(ISBLANK(F15),"",IF(ISBLANK(D15),F15,D15*F15)),"")</f>
         <v/>
@@ -3409,13 +3557,36 @@
       <c r="V15" s="60" t="n"/>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RETAINER</t>
+        </is>
+      </c>
       <c r="B16" s="25" t="n"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86848-25000</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E16" s="54" t="n"/>
-      <c r="H16" s="100">
-        <f>IF(Table1[[#This Row],[BMW Disc Code]]="","",IF(OR('Cover Sheet'!$G$7="BMW",'Cover Sheet'!$G$7="Mini"),(Table1[[#This Row],[Retail]]-SUM(VLOOKUP(Table1[[#This Row],[BMW Disc Code]],BMWdisc[#All],2,FALSE)*Table1[[#This Row],[Retail]])),""))</f>
-        <v/>
-      </c>
-      <c r="I16" s="54" t="n"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>$2.25</t>
+        </is>
+      </c>
+      <c r="H16" s="100" t="inlineStr">
+        <is>
+          <t>$1.80</t>
+        </is>
+      </c>
+      <c r="I16" s="54" t="n">
+        <v>36</v>
+      </c>
       <c r="J16" s="100">
         <f>IFERROR(IF(ISBLANK(F16),"",IF(ISBLANK(D16),F16,D16*F16)),"")</f>
         <v/>
@@ -3460,13 +3631,38 @@
       <c r="V16" s="60" t="n"/>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CLIP-ROOF MOULDING MTG</t>
+        </is>
+      </c>
       <c r="B17" s="25" t="n"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>87715-25000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E17" s="54" t="n"/>
-      <c r="H17" s="100">
-        <f>IF(Table1[[#This Row],[BMW Disc Code]]="","",IF(OR('Cover Sheet'!$G$7="BMW",'Cover Sheet'!$G$7="Mini"),(Table1[[#This Row],[Retail]]-SUM(VLOOKUP(Table1[[#This Row],[BMW Disc Code]],BMWdisc[#All],2,FALSE)*Table1[[#This Row],[Retail]])),""))</f>
-        <v/>
-      </c>
-      <c r="I17" s="54" t="n"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>$2.25</t>
+        </is>
+      </c>
+      <c r="H17" s="100" t="inlineStr">
+        <is>
+          <t>$1.80</t>
+        </is>
+      </c>
+      <c r="I17" s="54" t="inlineStr">
+        <is>
+          <t>34wks</t>
+        </is>
+      </c>
       <c r="J17" s="100">
         <f>IFERROR(IF(ISBLANK(F17),"",IF(ISBLANK(D17),F17,D17*F17)),"")</f>
         <v/>
@@ -3511,13 +3707,14 @@
       <c r="V17" s="60" t="n"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="25" t="n"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" s="54" t="n"/>
-      <c r="H18" s="100">
-        <f>IF(Table1[[#This Row],[BMW Disc Code]]="","",IF(OR('Cover Sheet'!$G$7="BMW",'Cover Sheet'!$G$7="Mini"),(Table1[[#This Row],[Retail]]-SUM(VLOOKUP(Table1[[#This Row],[BMW Disc Code]],BMWdisc[#All],2,FALSE)*Table1[[#This Row],[Retail]])),""))</f>
-        <v/>
-      </c>
-      <c r="I18" s="54" t="n"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="H18" s="100" t="inlineStr"/>
+      <c r="I18" s="54" t="inlineStr"/>
       <c r="J18" s="100">
         <f>IFERROR(IF(ISBLANK(F18),"",IF(ISBLANK(D18),F18,D18*F18)),"")</f>
         <v/>
